--- a/commands ideas.xlsx
+++ b/commands ideas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermyers/Desktop/Programs/voice_to_text/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7332E6-27C6-1045-BDF6-3466D6DE26F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EF7F19-BD62-8B45-9A3F-00340F265183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="13940" windowHeight="17500" xr2:uid="{F0EFFB54-F15C-1948-88E5-FFFCA019A0EF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>import glob</t>
   </si>
@@ -50,6 +50,455 @@
   </si>
   <si>
     <t>Keep filling until 1000 commands</t>
+  </si>
+  <si>
+    <t>Voice commands start with "python...</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>if condition:
+    pass
+else:
+    pass</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>for each</t>
+  </si>
+  <si>
+    <t>for ele in arr:
+    pass</t>
+  </si>
+  <si>
+    <t>for i in range(len(arr)):
+    pass</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>from import</t>
+  </si>
+  <si>
+    <t>import lib</t>
+  </si>
+  <si>
+    <t>from lib import func</t>
+  </si>
+  <si>
+    <t>comprehension</t>
+  </si>
+  <si>
+    <t>[x for x in arr]</t>
+  </si>
+  <si>
+    <t>import pyperclip as clip
+import pyautogui as g
+clip.copy('peter.us')
+g.hotkey('command', 'v')</t>
+  </si>
+  <si>
+    <t>clip</t>
+  </si>
+  <si>
+    <t>move mouse</t>
+  </si>
+  <si>
+    <t>import pyautogui as g
+g.FAILSAFE = True
+g.PAUSE = 0.0
+g.size()
+g.position()
+def c():
+    g.mouseDown()
+    g.mouseUp()
+def c2():
+    c()
+    c()
+def rc():
+    g.click(button='right')
+def select_all_and_copy():
+    rc()
+    g.keyDown('a')
+    g.keyUp('a')
+    g.keyDown('ctrl')
+    g.keyDown('c')
+    g.keyUp('c')
+    g.keyUp('ctrl')
+g.moveTo(929, 6)
+c()</t>
+  </si>
+  <si>
+    <t>import seaborn as sns
+import matplotlib.pyplot as plt
+# 1
+for i, col in enumerate(data.columns):
+    plt.figure(i)
+    if (data[col].dtype=='object')|(col=='education-num')|(col=='age'):
+        plot=sns.countplot(data[col])
+        for index, item in enumerate(plot.get_xticklabels()):
+            item.set_rotation(45)
+            if col=='age':
+                if index % 5 != 0:
+                    item.set_visible(False)
+    else:
+        plot=sns.distplot(data[col])
+    plot</t>
+  </si>
+  <si>
+    <t>eda part 1</t>
+  </si>
+  <si>
+    <t>eda part 2</t>
+  </si>
+  <si>
+    <t># 2
+sns.heatmap(data.select_dtypes(exclude='object').assign(income=target).corr(),annot=True)</t>
+  </si>
+  <si>
+    <t>eda part 3</t>
+  </si>
+  <si>
+    <t># 3
+from dython.nominal import associations
+associations(dataset=data.select_dtypes(include='object').assign(age=data['age'],income=target), nominal_columns='all',plot=True)
+associations(dataset=data.select_dtypes(include='object').assign(age=data['age'],income=target),theil_u=True, nominal_columns='all',plot=True)</t>
+  </si>
+  <si>
+    <t>eda part 4</t>
+  </si>
+  <si>
+    <t># 4
+from sklearn.model_selection import train_test_split
+data, eval_data, target, eval_target = train_test_split(data,target,test_size=.20)
+from sklearn.base import BaseEstimator, TransformerMixin
+import numpy as np
+from sklearn.pipeline import Pipeline, FeatureUnion
+from sklearn.preprocessing import OneHotEncoder, StandardScaler
+from sklearn.impute import SimpleImputer
+class TypeSelector(BaseEstimator, TransformerMixin):
+    def __init__(self, dtype):
+        self.dtype = dtype
+    def fit(self, X, y=None):
+        return self
+    def transform(self, X):
+        assert isinstance(X, pd.DataFrame)
+        return X.select_dtypes(include=[self.dtype])
+class StringIndexer(BaseEstimator, TransformerMixin):
+    def fit(self, X, y=None):
+        return self
+    def transform(self, X):
+        assert isinstance(X, pd.DataFrame)
+        return X.apply(lambda s: s.cat.codes.replace(
+            {-1: len(s.cat.categories)}
+        ))
+transformer = Pipeline([
+    ('features', FeatureUnion(n_jobs=1, transformer_list=[
+        # Part 1
+        ('boolean', Pipeline([
+            ('selector', TypeSelector('bool')),
+        ])),  # booleans close
+        ('numericals', Pipeline([
+            ('selector', TypeSelector(np.number)),
+            ('imputer',SimpleImputer()),
+            ('scaler', StandardScaler()),
+        ])),  # numericals close
+        # Part 2
+        ('categoricals', Pipeline([
+            ('selector', TypeSelector('category')),
+            ('labeler', StringIndexer()),
+            ('encoder', OneHotEncoder()),
+        ]))  # categoricals close
+    ])),  # features close
+])  # pipeline close</t>
+  </si>
+  <si>
+    <t>eda part 5</t>
+  </si>
+  <si>
+    <t># 5
+from sklearn.linear_model import LogisticRegression
+from sklearn.linear_model import RidgeClassifier
+from sklearn.ensemble import RandomForestClassifier
+from xgboost import XGBClassifier
+from sklearn.svm import LinearSVC
+from sklearn.neural_network import MLPClassifier
+from sklearn.linear_model import SGDClassifier
+from sklearn.neighbors import KNeighborsClassifier
+estimators=[
+    ('logistic',LogisticRegression(solver='liblinear',penalty='l2')),
+    ('lasso',LogisticRegression(solver='liblinear',penalty='l1')),
+    ('ridge',RidgeClassifier()),
+    ('elasticnet',SGDClassifier(loss='log', penalty='elasticnet')),
+    #('decision_tree',DecisionTreeClassifier()),
+    ('random_forest',RandomForestClassifier()),
+    ('xgb',XGBClassifier(ojective='reg:logistic')),
+    ('svc',LinearSVC()),
+    ('deep_nn',MLPClassifier()),
+    ('knn',KNeighborsClassifier(n_neighbors=5,weights='distance',algorithm='auto'))
+]
+pipes={}
+for model in estimators:
+    pipe=Pipeline(steps=[('data_prep',transformer),model])
+    pipe.fit(data,target)
+    pipes[pipe.steps[1][0]]=pipe</t>
+  </si>
+  <si>
+    <t>eda part 6</t>
+  </si>
+  <si>
+    <t># 6
+from sklearn.model_selection import KFold,cross_validate
+from sklearn.metrics import make_scorer, f1_score, accuracy_score,roc_auc_score,log_loss
+_metrics={'f1':make_scorer(f1_score),'auc':make_scorer(roc_auc_score),
+         'accuracy':'accuracy','logloss':make_scorer(log_loss)}
+estimator_names=[model[0] for model in estimators]
+def plot_estimators(estimators=estimator_names,n_splits=5,metrics=['f1','auc','accuracy','logloss']):
+    metrics={key : _metrics[key] for key in metrics}
+    scorers=[]
+    labels=[]
+    for pipe_name in pipes.keys():
+        if pipe_name in estimators:
+            pipe=pipes[pipe_name]
+            labels.append(pipe_name)
+            kf=KFold(n_splits)
+            model_score=cross_validate(pipe,data,target,scoring=metrics,cv=kf)
+            scorers.append(model_score)
+    score_lists={}
+    for metric in metrics:
+        score_lists[metric]=[score['test_'+metric] for score in scorers]
+    for  i,(title, _list) in enumerate(score_lists.items()):
+        plt.figure(i)
+        plot=sns.boxplot(data=_list).set_xticklabels(labels, rotation=45)
+        plt.title(title)
+metrics={'f1':make_scorer(f1_score),'auc':make_scorer(roc_auc_score),
+         'accuracy':'accuracy','logloss':make_scorer(log_loss)}
+plot_estimators()</t>
+  </si>
+  <si>
+    <t>eda part 7</t>
+  </si>
+  <si>
+    <t># 7
+from sklearn.model_selection import GridSearchCV
+def tune_param(model,param_grid,refit='auc',chart=None,data=data,target=target,cv=5):
+    param_grid={model+'__'+key : param_grid[key] for key in param_grid.keys()}
+    xgbcv=GridSearchCV(pipes[model],param_grid,scoring=metrics,refit=refit,cv=cv)
+    xgbcv.fit(data,target)
+    print('best score: '+str(xgbcv.best_score_))
+    print('best params: '+str(xgbcv.best_params_))
+    results=pd.DataFrame(xgbcv.cv_results_)
+    if 'line' in chart:
+        for i,param in enumerate(param_grid.keys()):
+            graph_data=results[['param_'+param,'mean_test_'+refit,'mean_train_'+refit]]
+            graph_data=graph_data.rename(columns={'mean_test_'+refit:'test','mean_train_'+refit:'train'})
+            graph_data=graph_data.melt('param_'+param, var_name='type',value_name=refit)
+            plt.figure(i)
+            plot=sns.lineplot(x='param_'+param,y=refit,hue='type',data=graph_data)
+    if 'heatmap' in chart:
+        assert len(param_grid) == 2,  'heatmap only works with 2 params, {} passed'.format(str(len(param_grid)))
+        param1=list(param_grid.keys())[0]
+        param2=list(param_grid.keys())[1]
+        graph_data=results[['param_'+param1,'param_'+param2,'mean_test_'+refit]]
+        graph_data=graph_data.pivot(index='param_'+param1,columns='param_'+param2,values='mean_test_'+refit)
+        sns.heatmap(graph_data,annot=True,xticklabels=True,yticklabels=True).set(xlabel=param2,ylabel=param1)</t>
+  </si>
+  <si>
+    <t>eda part 8</t>
+  </si>
+  <si>
+    <t># 8
+pipes['xgb'].named_steps['xgb'].get_params()
+param_grid={'n_estimators': [100,200,300,400,500,600,700,800,900]}
+tune_param('xgb',param_grid,chart='line')
+pipes['xgb'].set_params(**{'xgb__n_estimators': 1000})
+...
+pipes['random_forest'].named_steps['random_forest'].get_params()
+pipes['random_forest'].set_params(**{'random_forest__n_estimators': 100})
+param_grid={'max_depth':[3,8,13,18]}
+tune_param('random_forest',param_grid,chart='line')
+#we see that test auc plateaus at around 13-14ish
+#for efficiency sake lets set max depth at 13
+pipes['random_forest'].set_params(**{'random_forest__max_depth': 13})</t>
+  </si>
+  <si>
+    <t>eda part 9</t>
+  </si>
+  <si>
+    <t># 9 - heatmap
+warnings.filterwarnings('ignore')
+param_grid={'C': [0.001, 0.01, 0.1, 1, 10, 100, 1000],
+           'tol':[0.001, 0.01, 0.1, 1, 10, 100, 1000]}
+tune_param('logistic',param_grid,chart='heatmap')</t>
+  </si>
+  <si>
+    <t>eda part 10</t>
+  </si>
+  <si>
+    <t># 10
+plot_estimators(['xgb','svc','logistic','lasso','random_forest'])</t>
+  </si>
+  <si>
+    <t>learning curves</t>
+  </si>
+  <si>
+    <t># 11 Learning curves
+from sklearn.model_selection import learning_curve
+from sklearn.model_selection import ShuffleSplit
+t=transformer
+t.fit(data)
+t=t.transform(data)
+def plot_learning_curve(estimator, title, X, y, ylim=None, cv=None,
+                        n_jobs=-1, train_sizes=np.linspace(.1, 1.0, 5)):
+    """Generate a simple plot of the test and training learning curve"""
+    plt.figure()
+    plt.title(title)
+    if ylim is not None:
+        plt.ylim(*ylim)
+    plt.xlabel("Training examples")
+    plt.ylabel("Score")
+    train_sizes, train_scores, test_scores = learning_curve(
+        estimator, X, y, cv=cv, n_jobs=n_jobs, train_sizes=train_sizes)
+    train_scores_mean = np.mean(train_scores, axis=1)
+    train_scores_std = np.std(train_scores, axis=1)
+    test_scores_mean = np.mean(test_scores, axis=1)
+    test_scores_std = np.std(test_scores, axis=1)
+    plt.grid()
+    plt.fill_between(train_sizes, train_scores_mean - train_scores_std,
+                     train_scores_mean + train_scores_std, alpha=0.1,
+                     color="r")
+    plt.fill_between(train_sizes, test_scores_mean - test_scores_std,
+                     test_scores_mean + test_scores_std, alpha=0.1, color="g")
+    plt.plot(train_sizes, train_scores_mean, 'o-', color="r",
+             label="Training score")
+    plt.plot(train_sizes, test_scores_mean, 'o-', color="g",
+             label="Cross-validation score")
+    plt.legend(loc="best")
+    return plt
+to_plot=['xgb','random_forest','lasso','ridge']
+for name in pipes.keys():
+    if name in to_plot:
+        g=plot_learning_curve(pipes[name].named_steps[name],name+' learning curves',t,target,cv=KFold(4),n_jobs=4)</t>
+  </si>
+  <si>
+    <t>voting</t>
+  </si>
+  <si>
+    <t># 12 Ensemble
+ensemble_results=pd.DataFrame()
+for name,pipe in pipes.items():
+    ensemble_results[name]=pipe.predict(eval_data)
+sns.heatmap(ensemble_results.corr(),annot=True)
+del pipes['ridge'],pipes['decision_tree'],pipes['logistic']
+def print_predictions(target,predictions):
+    print('auc: '+str(roc_auc_score(target,predictions)))
+    print('f1: '+str(f1_score(target,predictions)))
+    print('accuracy: '+str(accuracy_score(target,predictions)))
+    print('logloss: '+str(log_loss(target,predictions)))
+from sklearn.ensemble import VotingClassifier
+from sklearn.base import clone
+estimators=[(pipe.steps[1][0],clone(pipe.steps[1][1])) for pipe in pipes.values()]
+vote=Pipeline(steps=[('data_prep',transformer),('voter',VotingClassifier(estimators))])
+vote.fit(data,target)
+predictions=vote.predict(eval_data)
+print_predictions(eval_target,predictions)
+for name in pipes.keys():
+    print(name)
+    predictions=pipes[name].predict(eval_data)
+    print_predictions(eval_target,predictions)
+    print()</t>
+  </si>
+  <si>
+    <t>more voting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# 13 different combinations of ensembles
+from itertools import combinations
+final_estimators=['random_forest','xgb','deep_nn','elasticnet']
+combos=[]
+for L in range(2, len(final_estimators)+1):
+    for subset in combinations(final_estimators, L):
+        combos.append(list(subset))
+combo_names=[]
+auc=[]
+f1=[]
+logloss=[]
+accuracy=[]
+for combo in combos:
+    estimators=[(name,clone(pipes[name].named_steps[name])) for name in combo]
+    vote=Pipeline(steps=[('data_prep',transformer),('voter',VotingClassifier(estimators))])
+    vote.fit(data,target)
+    predictions=vote.predict(eval_data)
+    auc.append(roc_auc_score(eval_target,predictions))
+    accuracy.append(accuracy_score(eval_target,predictions))
+    logloss.append(log_loss(eval_target,predictions))
+    f1.append(f1_score(eval_target,predictions))
+    combo_names.append(str(list(combo)))
+score=pd.DataFrame()
+score['combo']=combo_names
+score['auc']=auc
+score['f1']=f1
+score['accuracy']=accuracy
+score</t>
+  </si>
+  <si>
+    <t>hyperopt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+from hpsklearn import HyperoptEstimator, any_sparse_classifier, tfidf
+from sklearn.datasets import fetch_20newsgroups
+from sklearn import metrics
+from hyperopt import tpe
+import numpy as np
+# Download the data and split into training and test sets
+train = fetch_20newsgroups( subset='train' )
+test = fetch_20newsgroups( subset='test' )
+X_train = train.data
+y_train = train.target
+X_test = test.data
+y_test = test.target
+estim = HyperoptEstimator( classifier=any_sparse_classifier('clf'), 
+                            preprocessing=[tfidf('tfidf')],
+                            algo=tpe.suggest, trial_timeout=300)
+estim.fit( X_train, y_train )
+print( estim.score( X_test, y_test ) )
+# &lt;&lt;show score here&gt;&gt;
+print( estim.best_model() )
+# &lt;&lt;show model here&gt;&gt;</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t># step 1 - Define Output Schema
+result_schema =StructType([
+   StructField('model_key',StringType()),
+   StructField('ds',TimestampType()),
+   StructField('amount', FloatType()),
+   StructField('y', FloatType()),
+   StructField('yhat', FloatType()),
+   StructField('yhat_lower', FloatType()),
+   StructField('yhat_upper', FloatType()),
+   StructField('outlier', FloatType()),
+   StructField('mape', FloatType())])
+# step 2 - define spark udf
+@pandas_udf(result_schema, PandasUDFType.GROUPED_MAP )
+def get_forecast_prophet(keys, group_pd):
+   # code here
+   return results_pd_prophet[
+      ['model_key','ds','amount' ,
+       'y', 'yhat', 'yhat_lower', 'yhat_upper','outlier','mape']]
+# step 3 - use spark udf in spark sql apply method with group by key (e.g. model_key)
+forecast_prophet_1 = (
+    spark.sql("select * from sparkrDf a where split(a.model_key,'_')[0]=5105 ")
+    .groupBy('model_key',lit(forecast_horizon))
+    .apply(get_forecast_prophet))</t>
   </si>
 </sst>
 </file>
@@ -93,9 +542,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B4EBFF-9A68-004D-AAEF-245C1E7A5AC1}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,6 +888,193 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="356" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
